--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="H2">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="I2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="J2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>3.903701188803443</v>
+        <v>0.8105131819673335</v>
       </c>
       <c r="R2">
-        <v>35.133310699231</v>
+        <v>7.294618637706002</v>
       </c>
       <c r="S2">
-        <v>0.003390957132829462</v>
+        <v>0.001082352095405582</v>
       </c>
       <c r="T2">
-        <v>0.003390957132829463</v>
+        <v>0.001082352095405582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="H3">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="I3">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="J3">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>3.172102732771</v>
+        <v>2.013077086363</v>
       </c>
       <c r="R3">
-        <v>28.548924594939</v>
+        <v>18.117693777267</v>
       </c>
       <c r="S3">
-        <v>0.002755452804279496</v>
+        <v>0.00268824523908332</v>
       </c>
       <c r="T3">
-        <v>0.002755452804279496</v>
+        <v>0.002688245239083321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="H4">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="I4">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="J4">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>0.4727371009352223</v>
+        <v>0.3000080091778889</v>
       </c>
       <c r="R4">
-        <v>4.254633908417</v>
+        <v>2.700072082601001</v>
       </c>
       <c r="S4">
-        <v>0.0004106439419510929</v>
+        <v>0.0004006280275219907</v>
       </c>
       <c r="T4">
-        <v>0.0004106439419510929</v>
+        <v>0.0004006280275219908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>28.171991</v>
       </c>
       <c r="I5">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="J5">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>319.9469196886498</v>
+        <v>104.6762817301287</v>
       </c>
       <c r="R5">
-        <v>2879.522277197848</v>
+        <v>942.086535571158</v>
       </c>
       <c r="S5">
-        <v>0.2779224733073363</v>
+        <v>0.1397837757491723</v>
       </c>
       <c r="T5">
-        <v>0.2779224733073363</v>
+        <v>0.1397837757491723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.171991</v>
       </c>
       <c r="I6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="J6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>259.985190771509</v>
@@ -818,10 +818,10 @@
         <v>2339.866716943581</v>
       </c>
       <c r="S6">
-        <v>0.2258366084999715</v>
+        <v>0.3471819117400906</v>
       </c>
       <c r="T6">
-        <v>0.2258366084999716</v>
+        <v>0.3471819117400906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.171991</v>
       </c>
       <c r="I7">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="J7">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>38.74548075057145</v>
@@ -880,10 +880,10 @@
         <v>348.709326755143</v>
       </c>
       <c r="S7">
-        <v>0.03365633227586474</v>
+        <v>0.05174037043553947</v>
       </c>
       <c r="T7">
-        <v>0.03365633227586474</v>
+        <v>0.05174037043553947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>23.905536</v>
       </c>
       <c r="I8">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="J8">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>271.4931510061226</v>
+        <v>88.82377611315202</v>
       </c>
       <c r="R8">
-        <v>2443.438359055103</v>
+        <v>799.4139850183682</v>
       </c>
       <c r="S8">
-        <v>0.2358330190740714</v>
+        <v>0.1186144807226357</v>
       </c>
       <c r="T8">
-        <v>0.2358330190740714</v>
+        <v>0.1186144807226357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>23.905536</v>
       </c>
       <c r="I9">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="J9">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>220.612215070464</v>
@@ -1004,10 +1004,10 @@
         <v>1985.509935634176</v>
       </c>
       <c r="S9">
-        <v>0.191635201594874</v>
+        <v>0.2946035901279238</v>
       </c>
       <c r="T9">
-        <v>0.191635201594874</v>
+        <v>0.2946035901279238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>23.905536</v>
       </c>
       <c r="I10">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="J10">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
         <v>32.87774317832534</v>
@@ -1066,10 +1066,10 @@
         <v>295.899688604928</v>
       </c>
       <c r="S10">
-        <v>0.02855931136882183</v>
+        <v>0.04390464586262734</v>
       </c>
       <c r="T10">
-        <v>0.02855931136882183</v>
+        <v>0.04390464586262734</v>
       </c>
     </row>
   </sheetData>
